--- a/Docs/Docs/Shifts.xlsx
+++ b/Docs/Docs/Shifts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Joseph Oczadly\source\repos\Marek-Oczadly\Messaging-App\Docs\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD4031A-E5D6-46D7-BA8B-05852247AEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821701CC-1644-4C4E-93FD-24E74FAE30C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2B143F6-68A5-4F37-9475-82074FBCDF08}"/>
   </bookViews>
@@ -136,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +152,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -344,17 +338,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,7 +682,7 @@
   <dimension ref="B1:JP16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +694,7 @@
   <sheetData>
     <row r="1" spans="2:276" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:276" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -1001,67 +991,67 @@
     </row>
     <row r="3" spans="2:276" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
-      <c r="C3" s="23">
+      <c r="C3" s="25">
         <f ca="1">RANDBETWEEN(0, 1)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <f t="shared" ref="D3:R3" ca="1" si="0">RANDBETWEEN(0, 1)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="21">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2096,19 +2086,19 @@
         <f ca="1">RANDBETWEEN(0, 8)</f>
         <v>4</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <f ca="1">OFFSET(C$3, 0, $B4)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <f t="shared" ref="D4:R8" ca="1" si="5">OFFSET(D$3, 0, $B4)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
@@ -2128,19 +2118,19 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
@@ -3193,7 +3183,7 @@
         <f t="shared" ref="B5:B8" ca="1" si="10">RANDBETWEEN(0, 8)</f>
         <v>8</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <f t="shared" ref="C5:C8" ca="1" si="11">OFFSET(C$3, 0, $B5)</f>
         <v>1</v>
       </c>
@@ -3209,19 +3199,19 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
@@ -3241,19 +3231,19 @@
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="15">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
@@ -4291,19 +4281,19 @@
         <f t="shared" ca="1" si="10"/>
         <v>5</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
@@ -4323,19 +4313,19 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="19">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
@@ -5389,7 +5379,7 @@
         <f t="shared" ca="1" si="10"/>
         <v>8</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
@@ -5405,19 +5395,19 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
@@ -5437,19 +5427,19 @@
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="15">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
@@ -6487,19 +6477,19 @@
         <f t="shared" ca="1" si="10"/>
         <v>2</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="24">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
@@ -6519,19 +6509,19 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="20">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="20">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="20">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
